--- a/src/test/result.xlsx
+++ b/src/test/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="415">
   <si>
     <t>Image_name</t>
   </si>
@@ -31,298 +31,1234 @@
     <t>Chữ Quốc Ngữ</t>
   </si>
   <si>
-    <t>page_62.png</t>
-  </si>
-  <si>
-    <t>page_59.png</t>
-  </si>
-  <si>
-    <t>page_60.png</t>
-  </si>
-  <si>
-    <t>page_61.png</t>
-  </si>
-  <si>
-    <t>[[435, 38], [472, 38], [476, 477], [439, 477]]</t>
-  </si>
-  <si>
-    <t>[[370, 76], [404, 76], [406, 657], [372, 657]]</t>
-  </si>
-  <si>
-    <t>[[296, 70], [338, 69], [345, 305], [303, 306]]</t>
-  </si>
-  <si>
-    <t>[[238, 38], [271, 38], [272, 655], [239, 655]]</t>
-  </si>
-  <si>
-    <t>[[168, 76], [202, 76], [207, 653], [173, 653]]</t>
-  </si>
-  <si>
-    <t>[[101, 75], [135, 75], [139, 653], [105, 653]]</t>
-  </si>
-  <si>
-    <t>[[46, 81], [81, 84], [73, 182], [38, 179]]</t>
-  </si>
-  <si>
-    <t>[[639, 35], [669, 35], [668, 471], [638, 470]]</t>
-  </si>
-  <si>
-    <t>[[590, 37], [617, 37], [617, 472], [590, 472]]</t>
-  </si>
-  <si>
-    <t>[[540, 33], [570, 33], [570, 472], [540, 472]]</t>
-  </si>
-  <si>
-    <t>[[490, 34], [521, 34], [520, 475], [489, 475]]</t>
-  </si>
-  <si>
-    <t>[[442, 33], [472, 33], [470, 472], [440, 471]]</t>
-  </si>
-  <si>
-    <t>[[390, 32], [424, 32], [424, 243], [390, 243]]</t>
-  </si>
-  <si>
-    <t>[[388, 311], [423, 311], [423, 450], [388, 450]]</t>
-  </si>
-  <si>
-    <t>[[302, 5], [336, 6], [321, 472], [287, 471]]</t>
-  </si>
-  <si>
-    <t>[[249, 32], [280, 33], [267, 471], [236, 470]]</t>
-  </si>
-  <si>
-    <t>[[197, 26], [230, 27], [218, 471], [184, 470]]</t>
-  </si>
-  <si>
-    <t>[[146, 29], [177, 30], [166, 468], [135, 467]]</t>
-  </si>
-  <si>
-    <t>[[95, 25], [128, 26], [115, 467], [82, 466]]</t>
-  </si>
-  <si>
-    <t>[[42, 24], [77, 25], [66, 467], [32, 466]]</t>
-  </si>
-  <si>
-    <t>[[626, 53], [653, 53], [650, 464], [623, 464]]</t>
-  </si>
-  <si>
-    <t>[[577, 51], [607, 51], [602, 465], [572, 465]]</t>
-  </si>
-  <si>
-    <t>[[528, 49], [558, 49], [558, 278], [528, 278]]</t>
-  </si>
-  <si>
-    <t>[[523, 307], [560, 308], [557, 446], [521, 445]]</t>
-  </si>
-  <si>
-    <t>[[484, 17], [514, 18], [508, 465], [478, 465]]</t>
-  </si>
-  <si>
-    <t>[[436, 52], [464, 52], [463, 464], [435, 464]]</t>
-  </si>
-  <si>
-    <t>[[392, 50], [419, 50], [416, 463], [389, 463]]</t>
-  </si>
-  <si>
-    <t>[[306, 32], [337, 32], [330, 470], [300, 469]]</t>
-  </si>
-  <si>
-    <t>[[255, 36], [286, 36], [281, 469], [250, 468]]</t>
-  </si>
-  <si>
-    <t>[[205, 30], [235, 30], [231, 469], [201, 468]]</t>
-  </si>
-  <si>
-    <t>[[152, 30], [186, 30], [184, 464], [150, 464]]</t>
-  </si>
-  <si>
-    <t>[[106, 28], [136, 28], [132, 463], [102, 463]]</t>
-  </si>
-  <si>
-    <t>[[55, 25], [86, 25], [82, 464], [51, 464]]</t>
-  </si>
-  <si>
-    <t>[[17, 66], [46, 69], [38, 141], [9, 137]]</t>
-  </si>
-  <si>
-    <t>[[640, 52], [668, 52], [669, 458], [641, 458]]</t>
-  </si>
-  <si>
-    <t>[[594, 52], [621, 52], [622, 459], [595, 459]]</t>
-  </si>
-  <si>
-    <t>[[549, 54], [576, 53], [578, 459], [551, 459]]</t>
-  </si>
-  <si>
-    <t>[[502, 49], [530, 49], [532, 460], [503, 460]]</t>
-  </si>
-  <si>
-    <t>[[459, 52], [486, 52], [486, 461], [459, 461]]</t>
-  </si>
-  <si>
-    <t>[[416, 52], [443, 52], [441, 460], [414, 460]]</t>
-  </si>
-  <si>
-    <t>[[310, 53], [338, 54], [335, 456], [307, 456]]</t>
-  </si>
-  <si>
-    <t>[[264, 53], [292, 54], [287, 455], [259, 455]]</t>
-  </si>
-  <si>
-    <t>[[216, 51], [244, 52], [239, 456], [210, 456]]</t>
-  </si>
-  <si>
-    <t>[[171, 50], [198, 51], [192, 454], [165, 454]]</t>
-  </si>
-  <si>
-    <t>[[121, 51], [148, 51], [146, 453], [119, 453]]</t>
-  </si>
-  <si>
-    <t>[[75, 50], [103, 50], [100, 450], [72, 450]]</t>
-  </si>
-  <si>
-    <t>[[48, 89], [71, 89], [71, 169], [48, 169]]</t>
-  </si>
-  <si>
-    <t>吟𨔈𠄻事傷𦹵德宝支秋</t>
-  </si>
-  <si>
-    <t>傷喂𡥵德玉𡗶𦋦𠁀𠹾𤾓𠦳事傷</t>
-  </si>
-  <si>
-    <t>󰏙爲罪天下</t>
-  </si>
-  <si>
-    <t>次宣時吟欺德王支狹㐌旦𣈜迍𬇚</t>
-  </si>
-  <si>
-    <t>難𦓡贖罪朱天下時固滝𫗁耶羅</t>
-  </si>
-  <si>
-    <t>苔伵德三支𦑗㐌殿奴𠖤𢆥𠰺𫡮</t>
-  </si>
-  <si>
-    <t>哙鶴䧺</t>
-  </si>
-  <si>
-    <t>類𠊚些特塊罪段德主𢺺秋𢗼疸</t>
-  </si>
-  <si>
-    <t>朱𢧚辱奇壼命𦓡仍戎灰柳沚𦋦</t>
-  </si>
-  <si>
-    <t>𡮈𫴋坦欺唅閉饒事時願没經庄</t>
-  </si>
-  <si>
-    <t>天蓮經亞蟡傷德主󰒂秋𢗼𢞂鸾</t>
-  </si>
-  <si>
-    <t>𧖱碎嗔篤𢚸𣇞每罪矯爫朱德王</t>
-  </si>
-  <si>
-    <t>支秋𢗼𢞂爫丕</t>
-  </si>
-  <si>
-    <t>亞錦之秋</t>
-  </si>
-  <si>
-    <t>决𠀧時吟欺德主𢺺秩㐌別䋲樞𦖑</t>
-  </si>
-  <si>
-    <t>共名軍興㐌旦𧵆時德主𢺺秋𦋦</t>
-  </si>
-  <si>
-    <t>逴奴閉𣇞繩調耶假斫旦骨󰘚枚</t>
-  </si>
-  <si>
-    <t>主之秋𦓡𠊛別𢚸奴毒時拱𠴍𦓡</t>
-  </si>
-  <si>
-    <t>嘲奴段連𠳨各軍典浪拜𠫾尋埃</t>
-  </si>
-  <si>
-    <t>奴䜹浪𧖱些𠫾尋𢺺紗那沙懃閉</t>
-  </si>
-  <si>
-    <t>主支秋㐌傳法納洳命朱𧖱麟車</t>
-  </si>
-  <si>
-    <t>嗔𫴋飭𡨹道朱𥰊縉扒斫繩樞𦖑</t>
-  </si>
-  <si>
-    <t>半德主𢺺秋爫丕</t>
-  </si>
-  <si>
-    <t>亞綿之秋</t>
-  </si>
-  <si>
-    <t>次𠄩時吟欺德主𢺺狹𦓡󰀎𧡊罪天</t>
-  </si>
-  <si>
-    <t>下共䋲幅𦖑渧沙地獄共几𣈜𦋦</t>
-  </si>
-  <si>
-    <t>蹺意奴時德主𢺺秩𢗼𢞂愁𣎃派</t>
-  </si>
-  <si>
-    <t>𠓨汝園廊𧘇噲羅折󰊎調秩歸𪮙</t>
-  </si>
-  <si>
-    <t>𠀧苔伵𠫾共没羅翁聖北嚕𠄩羅</t>
-  </si>
-  <si>
-    <t>翁聖加姑破𠀧羅翁望樞安丕德</t>
-  </si>
-  <si>
-    <t>主支秋垃命𫴋坦求共德主吒𠀧</t>
-  </si>
-  <si>
-    <t>吝當欺群願時德主吒差没天神</t>
-  </si>
-  <si>
-    <t>𫴋安慰德主𢺺秋𠓨𠹾難朱奇靜</t>
-  </si>
-  <si>
-    <t>吟儀年</t>
-  </si>
-  <si>
-    <t>仍事贒𫅜𦓡鬼𠽖𢚸妖半德主𪟽</t>
-  </si>
-  <si>
-    <t>𦑗朱軍樞桃𠀧𨔈調泊丕德主𪟽</t>
-  </si>
-  <si>
-    <t>秋傷天下筭料崙𠹾𣨰時啫德矑</t>
-  </si>
-  <si>
-    <t>𦓡𠫾城𢺺由沙林羅几𢄂渃󰘚終</t>
-  </si>
-  <si>
-    <t>亞雙離圖𠹾難時𦓡𧘇德主𢺺秋</t>
-  </si>
-  <si>
-    <t>𥙩渃𦓡跪𫴋𣳮真朱各苔伵奇共</t>
-  </si>
-  <si>
-    <t>𣳮真繩調郎貝拯仍渃空共𥙩渃</t>
-  </si>
-  <si>
-    <t>𬑉𣳮真朱奴女爲傷惜靈魂𧘇伶</t>
-  </si>
-  <si>
-    <t>私段德主支秋傳法聖體朱天王</t>
-  </si>
-  <si>
-    <t>羅郎卑𣛟摸沙𰙔𦋦綿蘇顯𥙩鸾</t>
-  </si>
-  <si>
-    <t>魂類𠊚些朱旦歇𠁀欺吟閉饒事</t>
-  </si>
-  <si>
-    <t>時願没經在天𨔈經亞蟡隊恩德</t>
-  </si>
-  <si>
-    <t>州澂廊</t>
+    <t>page_440.png</t>
+  </si>
+  <si>
+    <t>page_441.png</t>
+  </si>
+  <si>
+    <t>page_450.png</t>
+  </si>
+  <si>
+    <t>page_446.png</t>
+  </si>
+  <si>
+    <t>page_447.png</t>
+  </si>
+  <si>
+    <t>page_451.png</t>
+  </si>
+  <si>
+    <t>page_444.png</t>
+  </si>
+  <si>
+    <t>page_452.png</t>
+  </si>
+  <si>
+    <t>page_448.png</t>
+  </si>
+  <si>
+    <t>page_449.png</t>
+  </si>
+  <si>
+    <t>page_453.png</t>
+  </si>
+  <si>
+    <t>page_445.png</t>
+  </si>
+  <si>
+    <t>page_442.png</t>
+  </si>
+  <si>
+    <t>page_443.png</t>
+  </si>
+  <si>
+    <t>[[392, 91], [429, 92], [422, 326], [385, 325]]</t>
+  </si>
+  <si>
+    <t>[[380, 388], [418, 390], [407, 635], [369, 633]]</t>
+  </si>
+  <si>
+    <t>[[346, 91], [383, 93], [375, 296], [338, 295]]</t>
+  </si>
+  <si>
+    <t>[[331, 378], [368, 379], [360, 634], [323, 632]]</t>
+  </si>
+  <si>
+    <t>[[299, 89], [335, 90], [328, 294], [292, 293]]</t>
+  </si>
+  <si>
+    <t>[[281, 375], [318, 376], [313, 646], [276, 646]]</t>
+  </si>
+  <si>
+    <t>[[276, 53], [267, 63], [286, 63], [276, 73]]</t>
+  </si>
+  <si>
+    <t>[[253, 85], [290, 87], [281, 281], [244, 279]]</t>
+  </si>
+  <si>
+    <t>[[235, 378], [272, 379], [264, 642], [227, 640]]</t>
+  </si>
+  <si>
+    <t>[[204, 81], [245, 83], [235, 276], [194, 274]]</t>
+  </si>
+  <si>
+    <t>[[186, 376], [222, 377], [214, 639], [178, 637]]</t>
+  </si>
+  <si>
+    <t>[[178, 46], [196, 46], [196, 67], [178, 67]]</t>
+  </si>
+  <si>
+    <t>[[150, 55], [187, 55], [182, 298], [145, 297]]</t>
+  </si>
+  <si>
+    <t>[[136, 374], [172, 375], [164, 595], [128, 594]]</t>
+  </si>
+  <si>
+    <t>[[106, 84], [143, 86], [136, 308], [99, 307]]</t>
+  </si>
+  <si>
+    <t>[[93, 372], [126, 373], [119, 598], [86, 597]]</t>
+  </si>
+  <si>
+    <t>[[407, 363], [442, 362], [448, 631], [413, 632]]</t>
+  </si>
+  <si>
+    <t>[[396, 84], [435, 83], [445, 299], [406, 301]]</t>
+  </si>
+  <si>
+    <t>[[360, 365], [396, 364], [404, 601], [368, 602]]</t>
+  </si>
+  <si>
+    <t>[[346, 82], [385, 79], [401, 280], [362, 283]]</t>
+  </si>
+  <si>
+    <t>[[310, 365], [348, 364], [352, 619], [314, 620]]</t>
+  </si>
+  <si>
+    <t>[[300, 85], [336, 84], [345, 257], [309, 259]]</t>
+  </si>
+  <si>
+    <t>[[258, 57], [272, 50], [281, 66], [267, 73]]</t>
+  </si>
+  <si>
+    <t>[[258, 369], [294, 367], [306, 617], [270, 618]]</t>
+  </si>
+  <si>
+    <t>[[247, 81], [287, 80], [297, 290], [258, 292]]</t>
+  </si>
+  <si>
+    <t>[[209, 374], [249, 372], [261, 624], [222, 625]]</t>
+  </si>
+  <si>
+    <t>[[203, 85], [240, 84], [246, 286], [210, 287]]</t>
+  </si>
+  <si>
+    <t>[[165, 372], [202, 371], [208, 616], [172, 617]]</t>
+  </si>
+  <si>
+    <t>[[156, 84], [195, 83], [200, 275], [161, 276]]</t>
+  </si>
+  <si>
+    <t>[[121, 370], [160, 370], [160, 607], [121, 607]]</t>
+  </si>
+  <si>
+    <t>[[103, 58], [143, 57], [155, 297], [116, 299]]</t>
+  </si>
+  <si>
+    <t>[[397, 59], [434, 59], [434, 221], [397, 221]]</t>
+  </si>
+  <si>
+    <t>[[382, 382], [430, 382], [430, 562], [382, 562]]</t>
+  </si>
+  <si>
+    <t>[[353, 56], [391, 57], [386, 222], [348, 221]]</t>
+  </si>
+  <si>
+    <t>[[340, 384], [381, 386], [373, 562], [332, 560]]</t>
+  </si>
+  <si>
+    <t>[[310, 52], [344, 54], [332, 269], [298, 267]]</t>
+  </si>
+  <si>
+    <t>[[287, 386], [325, 386], [326, 555], [288, 556]]</t>
+  </si>
+  <si>
+    <t>[[263, 21], [297, 22], [289, 266], [255, 264]]</t>
+  </si>
+  <si>
+    <t>[[244, 384], [281, 384], [281, 546], [244, 546]]</t>
+  </si>
+  <si>
+    <t>[[210, 54], [247, 56], [237, 273], [200, 271]]</t>
+  </si>
+  <si>
+    <t>[[196, 382], [237, 382], [237, 548], [196, 548]]</t>
+  </si>
+  <si>
+    <t>[[162, 47], [201, 50], [190, 246], [151, 244]]</t>
+  </si>
+  <si>
+    <t>[[147, 382], [184, 382], [184, 557], [147, 557]]</t>
+  </si>
+  <si>
+    <t>[[116, 49], [153, 49], [153, 322], [116, 322]]</t>
+  </si>
+  <si>
+    <t>[[104, 381], [141, 381], [141, 541], [104, 541]]</t>
+  </si>
+  <si>
+    <t>[[397, 54], [442, 55], [438, 255], [393, 254]]</t>
+  </si>
+  <si>
+    <t>[[387, 349], [430, 351], [415, 608], [372, 605]]</t>
+  </si>
+  <si>
+    <t>[[355, 54], [393, 56], [382, 247], [343, 245]]</t>
+  </si>
+  <si>
+    <t>[[340, 344], [377, 346], [364, 609], [327, 608]]</t>
+  </si>
+  <si>
+    <t>[[306, 55], [345, 57], [335, 249], [296, 247]]</t>
+  </si>
+  <si>
+    <t>[[292, 352], [329, 354], [315, 611], [278, 609]]</t>
+  </si>
+  <si>
+    <t>[[258, 19], [296, 21], [287, 258], [250, 256]]</t>
+  </si>
+  <si>
+    <t>[[244, 346], [281, 348], [270, 607], [233, 606]]</t>
+  </si>
+  <si>
+    <t>[[206, 47], [246, 48], [240, 266], [200, 264]]</t>
+  </si>
+  <si>
+    <t>[[194, 340], [234, 342], [224, 603], [184, 602]]</t>
+  </si>
+  <si>
+    <t>[[157, 46], [198, 48], [189, 256], [149, 254]]</t>
+  </si>
+  <si>
+    <t>[[143, 335], [186, 337], [175, 602], [132, 600]]</t>
+  </si>
+  <si>
+    <t>[[106, 45], [143, 46], [141, 246], [104, 245]]</t>
+  </si>
+  <si>
+    <t>[[96, 337], [136, 339], [126, 595], [86, 594]]</t>
+  </si>
+  <si>
+    <t>[[396, 339], [436, 337], [448, 591], [409, 593]]</t>
+  </si>
+  <si>
+    <t>[[390, 56], [430, 53], [444, 238], [404, 241]]</t>
+  </si>
+  <si>
+    <t>[[350, 342], [389, 341], [400, 604], [360, 605]]</t>
+  </si>
+  <si>
+    <t>[[347, 58], [383, 57], [389, 240], [353, 241]]</t>
+  </si>
+  <si>
+    <t>[[300, 343], [342, 342], [349, 598], [307, 599]]</t>
+  </si>
+  <si>
+    <t>[[297, 58], [336, 57], [342, 231], [303, 232]]</t>
+  </si>
+  <si>
+    <t>[[248, 345], [290, 344], [298, 595], [256, 596]]</t>
+  </si>
+  <si>
+    <t>[[246, 57], [286, 56], [291, 234], [251, 235]]</t>
+  </si>
+  <si>
+    <t>[[206, 348], [242, 347], [250, 595], [214, 596]]</t>
+  </si>
+  <si>
+    <t>[[198, 57], [237, 55], [247, 251], [209, 253]]</t>
+  </si>
+  <si>
+    <t>[[157, 348], [197, 347], [203, 595], [164, 596]]</t>
+  </si>
+  <si>
+    <t>[[151, 60], [191, 59], [198, 248], [158, 249]]</t>
+  </si>
+  <si>
+    <t>[[108, 346], [147, 345], [155, 602], [116, 603]]</t>
+  </si>
+  <si>
+    <t>[[105, 51], [144, 51], [148, 244], [108, 244]]</t>
+  </si>
+  <si>
+    <t>[[34, 445], [45, 445], [45, 497], [34, 497]]</t>
+  </si>
+  <si>
+    <t>[[429, 275], [447, 275], [447, 367], [429, 367]]</t>
+  </si>
+  <si>
+    <t>[[428, 403], [470, 401], [476, 541], [434, 543]]</t>
+  </si>
+  <si>
+    <t>[[415, 52], [466, 49], [486, 372], [436, 375]]</t>
+  </si>
+  <si>
+    <t>[[393, 238], [421, 235], [430, 317], [401, 320]]</t>
+  </si>
+  <si>
+    <t>[[384, 403], [425, 402], [428, 555], [387, 556]]</t>
+  </si>
+  <si>
+    <t>[[378, 50], [419, 51], [415, 243], [375, 242]]</t>
+  </si>
+  <si>
+    <t>[[368, 237], [403, 235], [408, 338], [372, 340]]</t>
+  </si>
+  <si>
+    <t>[[331, 406], [374, 404], [380, 548], [337, 549]]</t>
+  </si>
+  <si>
+    <t>[[328, 49], [367, 48], [372, 204], [334, 206]]</t>
+  </si>
+  <si>
+    <t>[[278, 407], [322, 405], [332, 561], [287, 564]]</t>
+  </si>
+  <si>
+    <t>[[276, 48], [315, 47], [320, 193], [282, 195]]</t>
+  </si>
+  <si>
+    <t>[[232, 408], [273, 406], [281, 560], [240, 562]]</t>
+  </si>
+  <si>
+    <t>[[224, 51], [269, 49], [277, 208], [232, 210]]</t>
+  </si>
+  <si>
+    <t>[[187, 409], [228, 407], [233, 569], [191, 570]]</t>
+  </si>
+  <si>
+    <t>[[180, 53], [218, 52], [225, 214], [186, 216]]</t>
+  </si>
+  <si>
+    <t>[[136, 407], [181, 407], [181, 576], [136, 576]]</t>
+  </si>
+  <si>
+    <t>[[132, 51], [173, 49], [180, 204], [139, 206]]</t>
+  </si>
+  <si>
+    <t>[[396, 74], [431, 75], [422, 271], [387, 270]]</t>
+  </si>
+  <si>
+    <t>[[377, 353], [410, 355], [394, 614], [360, 612]]</t>
+  </si>
+  <si>
+    <t>[[345, 140], [381, 142], [367, 346], [331, 343]]</t>
+  </si>
+  <si>
+    <t>[[320, 489], [362, 492], [355, 577], [313, 574]]</t>
+  </si>
+  <si>
+    <t>[[298, 62], [331, 64], [319, 268], [286, 266]]</t>
+  </si>
+  <si>
+    <t>[[278, 346], [314, 348], [301, 599], [266, 598]]</t>
+  </si>
+  <si>
+    <t>[[256, 21], [290, 24], [271, 261], [236, 258]]</t>
+  </si>
+  <si>
+    <t>[[230, 343], [264, 345], [251, 609], [216, 608]]</t>
+  </si>
+  <si>
+    <t>[[209, 58], [241, 60], [228, 253], [197, 251]]</t>
+  </si>
+  <si>
+    <t>[[186, 344], [218, 346], [205, 601], [173, 600]]</t>
+  </si>
+  <si>
+    <t>[[159, 52], [195, 55], [181, 256], [145, 254]]</t>
+  </si>
+  <si>
+    <t>[[137, 339], [171, 341], [159, 597], [125, 596]]</t>
+  </si>
+  <si>
+    <t>[[114, 47], [150, 50], [136, 234], [100, 231]]</t>
+  </si>
+  <si>
+    <t>[[90, 338], [125, 339], [114, 608], [79, 607]]</t>
+  </si>
+  <si>
+    <t>[[396, 69], [439, 71], [431, 235], [388, 232]]</t>
+  </si>
+  <si>
+    <t>[[380, 406], [419, 406], [419, 525], [380, 525]]</t>
+  </si>
+  <si>
+    <t>[[368, 294], [419, 294], [419, 343], [368, 343]]</t>
+  </si>
+  <si>
+    <t>[[350, 62], [386, 63], [379, 265], [342, 264]]</t>
+  </si>
+  <si>
+    <t>[[335, 290], [368, 290], [368, 336], [335, 336]]</t>
+  </si>
+  <si>
+    <t>[[332, 390], [378, 390], [378, 501], [332, 501]]</t>
+  </si>
+  <si>
+    <t>[[298, 58], [336, 59], [334, 260], [296, 259]]</t>
+  </si>
+  <si>
+    <t>[[276, 393], [321, 391], [326, 506], [281, 508]]</t>
+  </si>
+  <si>
+    <t>[[249, 54], [287, 55], [283, 251], [246, 250]]</t>
+  </si>
+  <si>
+    <t>[[227, 401], [271, 397], [281, 511], [237, 514]]</t>
+  </si>
+  <si>
+    <t>[[200, 55], [238, 56], [232, 270], [195, 269]]</t>
+  </si>
+  <si>
+    <t>[[186, 399], [228, 399], [228, 541], [186, 541]]</t>
+  </si>
+  <si>
+    <t>[[154, 52], [191, 53], [186, 264], [148, 263]]</t>
+  </si>
+  <si>
+    <t>[[137, 394], [179, 394], [179, 531], [137, 531]]</t>
+  </si>
+  <si>
+    <t>[[107, 49], [144, 51], [133, 293], [96, 291]]</t>
+  </si>
+  <si>
+    <t>[[85, 391], [130, 393], [126, 530], [80, 528]]</t>
+  </si>
+  <si>
+    <t>[[382, 59], [421, 60], [415, 270], [376, 269]]</t>
+  </si>
+  <si>
+    <t>[[373, 347], [412, 347], [416, 597], [377, 597]]</t>
+  </si>
+  <si>
+    <t>[[334, 56], [373, 57], [367, 251], [329, 250]]</t>
+  </si>
+  <si>
+    <t>[[325, 353], [360, 352], [365, 590], [330, 591]]</t>
+  </si>
+  <si>
+    <t>[[285, 56], [324, 57], [316, 254], [277, 253]]</t>
+  </si>
+  <si>
+    <t>[[272, 353], [308, 352], [314, 597], [278, 598]]</t>
+  </si>
+  <si>
+    <t>[[234, 55], [270, 56], [263, 248], [228, 247]]</t>
+  </si>
+  <si>
+    <t>[[222, 347], [262, 346], [268, 602], [229, 603]]</t>
+  </si>
+  <si>
+    <t>[[187, 55], [223, 55], [221, 245], [184, 245]]</t>
+  </si>
+  <si>
+    <t>[[178, 345], [217, 345], [220, 606], [181, 606]]</t>
+  </si>
+  <si>
+    <t>[[138, 53], [175, 54], [170, 247], [134, 246]]</t>
+  </si>
+  <si>
+    <t>[[136, 345], [172, 345], [168, 609], [132, 609]]</t>
+  </si>
+  <si>
+    <t>[[93, 53], [128, 53], [128, 241], [93, 241]]</t>
+  </si>
+  <si>
+    <t>[[93, 344], [124, 344], [124, 612], [93, 612]]</t>
+  </si>
+  <si>
+    <t>[[384, 204], [425, 203], [429, 383], [389, 384]]</t>
+  </si>
+  <si>
+    <t>[[340, 73], [380, 73], [380, 268], [340, 268]]</t>
+  </si>
+  <si>
+    <t>[[339, 364], [378, 364], [384, 655], [344, 655]]</t>
+  </si>
+  <si>
+    <t>[[297, 370], [333, 370], [333, 643], [297, 643]]</t>
+  </si>
+  <si>
+    <t>[[296, 75], [336, 75], [336, 282], [296, 282]]</t>
+  </si>
+  <si>
+    <t>[[251, 366], [294, 367], [288, 642], [244, 640]]</t>
+  </si>
+  <si>
+    <t>[[244, 37], [284, 37], [289, 280], [249, 280]]</t>
+  </si>
+  <si>
+    <t>[[197, 364], [237, 364], [240, 630], [200, 630]]</t>
+  </si>
+  <si>
+    <t>[[195, 78], [236, 78], [239, 278], [198, 278]]</t>
+  </si>
+  <si>
+    <t>[[145, 364], [188, 364], [184, 638], [142, 638]]</t>
+  </si>
+  <si>
+    <t>[[142, 83], [183, 81], [192, 275], [151, 277]]</t>
+  </si>
+  <si>
+    <t>[[98, 80], [142, 80], [142, 285], [98, 285]]</t>
+  </si>
+  <si>
+    <t>[[94, 363], [135, 363], [138, 636], [97, 636]]</t>
+  </si>
+  <si>
+    <t>[[27, 327], [41, 327], [41, 491], [27, 491]]</t>
+  </si>
+  <si>
+    <t>[[299, 443], [389, 443], [389, 483], [299, 483]]</t>
+  </si>
+  <si>
+    <t>[[235, 30], [302, 29], [308, 427], [241, 427]]</t>
+  </si>
+  <si>
+    <t>[[148, 438], [264, 443], [262, 486], [146, 481]]</t>
+  </si>
+  <si>
+    <t>[[36, 521], [46, 521], [46, 585], [36, 585]]</t>
+  </si>
+  <si>
+    <t>[[402, 342], [439, 341], [443, 600], [406, 601]]</t>
+  </si>
+  <si>
+    <t>[[401, 47], [435, 46], [441, 247], [406, 248]]</t>
+  </si>
+  <si>
+    <t>[[357, 46], [395, 45], [397, 239], [359, 239]]</t>
+  </si>
+  <si>
+    <t>[[356, 341], [390, 340], [396, 601], [361, 602]]</t>
+  </si>
+  <si>
+    <t>[[313, 48], [347, 48], [347, 231], [313, 231]]</t>
+  </si>
+  <si>
+    <t>[[310, 342], [343, 342], [346, 607], [312, 607]]</t>
+  </si>
+  <si>
+    <t>[[265, 8], [296, 8], [296, 227], [265, 227]]</t>
+  </si>
+  <si>
+    <t>[[261, 343], [297, 343], [297, 607], [261, 607]]</t>
+  </si>
+  <si>
+    <t>[[215, 344], [246, 344], [246, 609], [215, 609]]</t>
+  </si>
+  <si>
+    <t>[[213, 47], [247, 47], [247, 236], [213, 236]]</t>
+  </si>
+  <si>
+    <t>[[164, 48], [202, 48], [202, 237], [164, 237]]</t>
+  </si>
+  <si>
+    <t>[[161, 339], [199, 339], [202, 615], [165, 616]]</t>
+  </si>
+  <si>
+    <t>[[115, 340], [149, 340], [149, 604], [115, 604]]</t>
+  </si>
+  <si>
+    <t>[[112, 52], [150, 51], [152, 234], [115, 234]]</t>
+  </si>
+  <si>
+    <t>[[26, 327], [53, 327], [57, 599], [30, 599]]</t>
+  </si>
+  <si>
+    <t>[[375, 375], [411, 376], [408, 609], [372, 609]]</t>
+  </si>
+  <si>
+    <t>[[372, 57], [422, 56], [429, 310], [379, 311]]</t>
+  </si>
+  <si>
+    <t>[[332, 90], [368, 90], [370, 308], [333, 308]]</t>
+  </si>
+  <si>
+    <t>[[326, 377], [362, 376], [363, 606], [327, 606]]</t>
+  </si>
+  <si>
+    <t>[[283, 86], [323, 87], [320, 272], [280, 271]]</t>
+  </si>
+  <si>
+    <t>[[275, 378], [310, 377], [313, 637], [278, 637]]</t>
+  </si>
+  <si>
+    <t>[[239, 87], [278, 88], [270, 271], [231, 269]]</t>
+  </si>
+  <si>
+    <t>[[227, 379], [263, 378], [265, 633], [229, 633]]</t>
+  </si>
+  <si>
+    <t>[[187, 83], [223, 83], [223, 266], [187, 266]]</t>
+  </si>
+  <si>
+    <t>[[183, 376], [219, 377], [215, 619], [179, 618]]</t>
+  </si>
+  <si>
+    <t>[[141, 84], [176, 84], [176, 270], [141, 270]]</t>
+  </si>
+  <si>
+    <t>[[130, 378], [166, 377], [168, 627], [132, 627]]</t>
+  </si>
+  <si>
+    <t>[[117, 40], [135, 40], [135, 63], [117, 63]]</t>
+  </si>
+  <si>
+    <t>[[90, 379], [121, 379], [121, 610], [90, 610]]</t>
+  </si>
+  <si>
+    <t>[[88, 49], [130, 48], [136, 300], [94, 301]]</t>
+  </si>
+  <si>
+    <t>[[403, 41], [442, 42], [436, 274], [397, 273]]</t>
+  </si>
+  <si>
+    <t>[[401, 352], [436, 352], [438, 588], [402, 588]]</t>
+  </si>
+  <si>
+    <t>[[352, 61], [387, 61], [389, 264], [354, 265]]</t>
+  </si>
+  <si>
+    <t>[[351, 354], [390, 354], [392, 585], [353, 586]]</t>
+  </si>
+  <si>
+    <t>[[303, 61], [342, 60], [346, 257], [307, 258]]</t>
+  </si>
+  <si>
+    <t>[[302, 352], [344, 351], [348, 598], [306, 599]]</t>
+  </si>
+  <si>
+    <t>[[270, 36], [283, 36], [283, 52], [270, 52]]</t>
+  </si>
+  <si>
+    <t>[[259, 62], [291, 62], [291, 259], [259, 259]]</t>
+  </si>
+  <si>
+    <t>[[258, 357], [294, 357], [295, 602], [259, 602]]</t>
+  </si>
+  <si>
+    <t>[[204, 67], [239, 67], [241, 267], [207, 268]]</t>
+  </si>
+  <si>
+    <t>[[204, 357], [243, 357], [247, 596], [208, 597]]</t>
+  </si>
+  <si>
+    <t>[[158, 359], [193, 359], [193, 621], [158, 621]]</t>
+  </si>
+  <si>
+    <t>[[153, 70], [193, 69], [195, 259], [155, 260]]</t>
+  </si>
+  <si>
+    <t>[[105, 357], [143, 357], [147, 619], [109, 620]]</t>
+  </si>
+  <si>
+    <t>[[101, 66], [140, 65], [145, 249], [106, 250]]</t>
+  </si>
+  <si>
+    <t>󰡎埋養丞鉋𦣰唎</t>
+  </si>
+  <si>
+    <t>𨕭蚕如𬁖典添花</t>
+  </si>
+  <si>
+    <t>𨕭爫弹𠫅添𠁀</t>
+  </si>
+  <si>
+    <t>渴𢜠橘蠻𫢩咤恪初</t>
+  </si>
+  <si>
+    <t>闭𥹰㗜𣿌𤞻徐</t>
+  </si>
+  <si>
+    <t>翠炵解𡅧𩄲唋𣘽移</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>𠲖吒爫𦋦𨕭核</t>
+  </si>
+  <si>
+    <t>主恭料𡦂爫𧊉𡨌詳</t>
+  </si>
+  <si>
+    <t>𡢐尼紅將交主</t>
+  </si>
+  <si>
+    <t>蹅顔󰠲路爫𦎛蓮苓</t>
+  </si>
+  <si>
+    <t>以</t>
+  </si>
+  <si>
+    <t>淫時𧍰羡主寔迻󰅒</t>
+  </si>
+  <si>
+    <t>將𡢐𠲖𠯇買降生</t>
+  </si>
+  <si>
+    <t>默絶𬷤𠊛鄰𠓇󰠲</t>
+  </si>
+  <si>
+    <t>歇碎󰞽𮥷鬼玲𥹰󰠲</t>
+  </si>
+  <si>
+    <t>𦧘悴乏堂緝𨷑嵬窻</t>
+  </si>
+  <si>
+    <t>焒滚地𦑗𥪸挼迻</t>
+  </si>
+  <si>
+    <t>没泠運𠦳吏強添哰</t>
+  </si>
+  <si>
+    <t>潮兵堂尼𨷑鸞</t>
+  </si>
+  <si>
+    <t>󰇏𪡵橘变𧷺蚕卒鮮</t>
+  </si>
+  <si>
+    <t>空常妥文爫堂</t>
+  </si>
+  <si>
+    <t>刁</t>
+  </si>
+  <si>
+    <t>𢝙𢜠執直歇𢬭自𫢩</t>
+  </si>
+  <si>
+    <t>芸養舘珍𫗄𢚸</t>
+  </si>
+  <si>
+    <t>𢜠芸󰡏移𡢐𠳒降盘</t>
+  </si>
+  <si>
+    <t>天神𥪞喝辞𦋦</t>
+  </si>
+  <si>
+    <t>別浪跪𥛉爫常󰜋茹</t>
+  </si>
+  <si>
+    <t>澄丞添買添㝹</t>
+  </si>
+  <si>
+    <t>浽卿老𨆢𦊚𣷭寧</t>
+  </si>
+  <si>
+    <t>浪𢝙終天𧘇踏没𡢐</t>
+  </si>
+  <si>
+    <t>業堛差󱋓</t>
+  </si>
+  <si>
+    <t>蒙落𫋻於䘮</t>
+  </si>
+  <si>
+    <t>养案差孝</t>
+  </si>
+  <si>
+    <t>养冬埝𨅸張</t>
+  </si>
+  <si>
+    <t>犬公𬌓躇渚𭓇派</t>
+  </si>
+  <si>
+    <t>羕冬𪽗𠆳浪</t>
+  </si>
+  <si>
+    <t>𠰘文公桃𣘃油𭓇𦂛</t>
+  </si>
+  <si>
+    <t>筭冬冷沛𪤍</t>
+  </si>
+  <si>
+    <t>黎絶𡗶鈽󰖥紇枚</t>
+  </si>
+  <si>
+    <t>羕𠆳𡳃冬󰠱</t>
+  </si>
+  <si>
+    <t>犬丞𬌓嵬𭓇派</t>
+  </si>
+  <si>
+    <t>蓬潤𤞻蠶琴</t>
+  </si>
+  <si>
+    <t>大丞󰘚𢹣𠓨將𠳚典𧗱𫅷</t>
+  </si>
+  <si>
+    <t>花魂𪭯𡎢䘮</t>
+  </si>
+  <si>
+    <t>敬𢜠三奇尺堂</t>
+  </si>
+  <si>
+    <t>𢩾𪟽𠊛过流移浮𡢐</t>
+  </si>
+  <si>
+    <t>更弹𠓨几𬟥𡗉</t>
+  </si>
+  <si>
+    <t>拱擒脱只奇沔嘹𣾺</t>
+  </si>
+  <si>
+    <t>烝多如極𡗋冲</t>
+  </si>
+  <si>
+    <t>𭓇香𡮍旦𥙩渗哏韋</t>
+  </si>
+  <si>
+    <t>𠰘𠀧常𫀅𧡊闭移</t>
+  </si>
+  <si>
+    <t>如𢜠如𢢆﨤釵𬼀情</t>
+  </si>
+  <si>
+    <t>吏𧡊󰖧媄蠶更</t>
+  </si>
+  <si>
+    <t>拠昆祝丿如別惨滈</t>
+  </si>
+  <si>
+    <t>棍𣘃𥘀𣻆𢭸狼</t>
+  </si>
+  <si>
+    <t>蚕如湿嘅冲蠶坤情</t>
+  </si>
+  <si>
+    <t>𡎝命𤌋𠖈𦣰蘇</t>
+  </si>
+  <si>
+    <t>拉命𡅧𧊉𢢆𢠩勾瑤</t>
+  </si>
+  <si>
+    <t>蹺𬂙𠫾瓊𬼀呢𠬠𦣰</t>
+  </si>
+  <si>
+    <t>𠀧󰟯𨖅謝歇𠳒</t>
+  </si>
+  <si>
+    <t>𢝙󰅒𤋵対坤扲𠖤𣘃</t>
+  </si>
+  <si>
+    <t>盃爱𨤮𠼯浸双</t>
+  </si>
+  <si>
+    <t>𬌓香斎倘濁濤唏𩑛</t>
+  </si>
+  <si>
+    <t>𠀧尋𠀧紅𠦳𠓨</t>
+  </si>
+  <si>
+    <t>濁軒照变之運󰀋軍</t>
+  </si>
+  <si>
+    <t>強烝勸主王夭</t>
+  </si>
+  <si>
+    <t>挭添秀下蜂娄海𥹰</t>
+  </si>
+  <si>
+    <t>悭琴默𥙩爫頭</t>
+  </si>
+  <si>
+    <t>𥛉迻卷𥙩墻包祝𢜠</t>
+  </si>
+  <si>
+    <t>𠀧𤤰𡓄𠼯𩌂唭</t>
+  </si>
+  <si>
+    <t>𢚸碎現宂𢝙𤎜喝撑</t>
+  </si>
+  <si>
+    <t>牢虐燃匕判徵</t>
+  </si>
+  <si>
+    <t>引曰年道</t>
+  </si>
+  <si>
+    <t>涓丞福移</t>
+  </si>
+  <si>
+    <t>󰟯𤞻秩張</t>
+  </si>
+  <si>
+    <t>總三喭怯料与惚綏結解𫅷</t>
+  </si>
+  <si>
+    <t>󱉎晏冲</t>
+  </si>
+  <si>
+    <t>蒙冬𢞂𨅸浪</t>
+  </si>
+  <si>
+    <t>対終曾𨀈事苔</t>
+  </si>
+  <si>
+    <t>泊圣絶󰅒</t>
+  </si>
+  <si>
+    <t>󰟯次淹孟張</t>
+  </si>
+  <si>
+    <t>象󰒂差業</t>
+  </si>
+  <si>
+    <t>𤾓次𤞻底󰠱</t>
+  </si>
+  <si>
+    <t>嵬冬差㝵</t>
+  </si>
+  <si>
+    <t>羕𠬠浍悶娘</t>
+  </si>
+  <si>
+    <t>冬差象</t>
+  </si>
+  <si>
+    <t>󰟯苓儉扒䘮</t>
+  </si>
+  <si>
+    <t>業群呂孝</t>
+  </si>
+  <si>
+    <t>𦊚冬𫋻壹聚</t>
+  </si>
+  <si>
+    <t>孕盃差㝵</t>
+  </si>
+  <si>
+    <t>𡨹𢚸󰝸㤕𠹳󱋔</t>
+  </si>
+  <si>
+    <t>󰜋𢚸卷主孚夢細𫅷</t>
+  </si>
+  <si>
+    <t>浽恭多郑當饒</t>
+  </si>
+  <si>
+    <t>丞林</t>
+  </si>
+  <si>
+    <t>恩運濁絶𩙌󰑼</t>
+  </si>
+  <si>
+    <t>永計󰠳秩浽駟𢜠淄</t>
+  </si>
+  <si>
+    <t>𨀈迻尋𠬠定䰸尼</t>
+  </si>
+  <si>
+    <t>㨿󰜏𡗶蓐󰜋𠊛𠼯𠳒</t>
+  </si>
+  <si>
+    <t>計自蒲趣爫京</t>
+  </si>
+  <si>
+    <t>𣳔常郎曰於𥆁珍皮</t>
+  </si>
+  <si>
+    <t>𠦳𠳐秦許唱墙</t>
+  </si>
+  <si>
+    <t>論漿洳約𠸗鸞浽令</t>
+  </si>
+  <si>
+    <t>務状重八弹尼</t>
+  </si>
+  <si>
+    <t>天神瑰保遼𢣧庒󰑼</t>
+  </si>
+  <si>
+    <t>𠀧尋油𥙩</t>
+  </si>
+  <si>
+    <t>羕事張</t>
+  </si>
+  <si>
+    <t>瓊</t>
+  </si>
+  <si>
+    <t>浽癸浽那旨𣣱</t>
+  </si>
+  <si>
+    <t>正</t>
+  </si>
+  <si>
+    <t>弟丞張</t>
+  </si>
+  <si>
+    <t>妾癸安那新饒</t>
+  </si>
+  <si>
+    <t>棠陶渠</t>
+  </si>
+  <si>
+    <t>犬癸梞𠆳京鞍</t>
+  </si>
+  <si>
+    <t>弟琰張</t>
+  </si>
+  <si>
+    <t>悴󱋓喠論圣幅𣘃</t>
+  </si>
+  <si>
+    <t>弟𪭯𥐆張</t>
+  </si>
+  <si>
+    <t>㤕約公趣移欺𠖤</t>
+  </si>
+  <si>
+    <t>茶台柴張</t>
+  </si>
+  <si>
+    <t>悶䋦尽繩拸𥹰喭嚀</t>
+  </si>
+  <si>
+    <t>蘂󰅒𧗱浪</t>
+  </si>
+  <si>
+    <t>顯𬂙𫽻塢將𣈙</t>
+  </si>
+  <si>
+    <t>𢝙𩄲𥘷嘆如𠁀𨕭梗</t>
+  </si>
+  <si>
+    <t>𣷷林皮細𧵆𫳵</t>
+  </si>
+  <si>
+    <t>主𨕭𧡊󰀋吒情𥰊𥋳</t>
+  </si>
+  <si>
+    <t>俸󰠲𬂙悶𠅍燶</t>
+  </si>
+  <si>
+    <t>𠀧唏查𠳨𫽄淶根象</t>
+  </si>
+  <si>
+    <t>汲舒拳𥙩寧沔</t>
+  </si>
+  <si>
+    <t>𧡊𬂙𨔍𥱬𨕭𫥨𠁀</t>
+  </si>
+  <si>
+    <t>容碎尋襊𧘇𫡮</t>
+  </si>
+  <si>
+    <t>乘默覩謝𥛉𠊛𠻗𥆾</t>
+  </si>
+  <si>
+    <t>𬂙發淄𡨌迻󰠲</t>
+  </si>
+  <si>
+    <t>俸󰠳𥰊𢩽鬏程𩄲󰅒</t>
+  </si>
+  <si>
+    <t>當干濕𠫅𬼀𠳒</t>
+  </si>
+  <si>
+    <t>秩𬂙吏雙𠲝鉦𡨌爲</t>
+  </si>
+  <si>
+    <t>禮𠀧希渚𥋳</t>
+  </si>
+  <si>
+    <t>窻𨇜𡗶深仕慈</t>
+  </si>
+  <si>
+    <t>料命吀过矯㐌類象</t>
+  </si>
+  <si>
+    <t>𡽫湄爱逴󰖧孕世囘</t>
+  </si>
+  <si>
+    <t>瓊冷仕㨿卒鮮</t>
+  </si>
+  <si>
+    <t>𫕲江縱吏󰋇𣋚斤燶</t>
+  </si>
+  <si>
+    <t>立消󰖥薄牢󰠩滇</t>
+  </si>
+  <si>
+    <t>𧡊𬂙吟鄕𤼸固𠄩𣾺</t>
+  </si>
+  <si>
+    <t>𩈘𠀧尋落𪟽㝵</t>
+  </si>
+  <si>
+    <t>扵饒合吏拮命𥐆𠫾</t>
+  </si>
+  <si>
+    <t>別浪卢帝降生</t>
+  </si>
+  <si>
+    <t>歡糧食𡏦礼儀</t>
+  </si>
+  <si>
+    <t>馭車寧國提摸橘蚤</t>
+  </si>
+  <si>
+    <t>瓊殘名同</t>
+  </si>
+  <si>
+    <t>瑋分</t>
+  </si>
+  <si>
+    <t>説墾奇𡞕磋</t>
+  </si>
+  <si>
+    <t>恕螺渊</t>
+  </si>
+  <si>
+    <t>否南以</t>
+  </si>
+  <si>
+    <t>段棦㐌悶庒京産𫡮</t>
+  </si>
+  <si>
+    <t>恩𩄲濁宦知灵</t>
+  </si>
+  <si>
+    <t>段󰋇謝圣𫥨𧗱</t>
+  </si>
+  <si>
+    <t>㗂󰑼移楼橋𣘃卒𨂘</t>
+  </si>
+  <si>
+    <t>󰒂𧷺懇匕󰜋終</t>
+  </si>
+  <si>
+    <t>熷𡗉冷𩙌蜂𡢐冲壘</t>
+  </si>
+  <si>
+    <t>𠰘泛𨕭差﨤忍欣</t>
+  </si>
+  <si>
+    <t>𡮈權𨖅查𠖰󰘚萍釆</t>
+  </si>
+  <si>
+    <t>丿神蜆保淬𧗱魂觥</t>
+  </si>
+  <si>
+    <t>扽杯𡶀𢮿𥘷𠫾</t>
+  </si>
+  <si>
+    <t>渚𦖑廷庶𠴗汀</t>
+  </si>
+  <si>
+    <t>尋称昆𥙩求命瑰𢗼</t>
+  </si>
+  <si>
+    <t>沛𠫾添𢞂矯󰋇銀雄</t>
+  </si>
+  <si>
+    <t>𠀧𤤰脱別根軍</t>
+  </si>
+  <si>
+    <t>𠫾怒貪𠄩󰥎呂𧗱𠳒</t>
+  </si>
+  <si>
+    <t>最泛𤑟悶󰡏報枚</t>
+  </si>
+  <si>
+    <t>𢖵𠫾𥙩𢜝𫢩𣻆渚𪟽</t>
+  </si>
+  <si>
+    <t>𡽫湄爱𨔾破強𨖲</t>
+  </si>
+  <si>
+    <t>唿𣹕浪泟㙮㪯磋</t>
+  </si>
+  <si>
+    <t>自𫢩落𬂙爫𬁖</t>
+  </si>
+  <si>
+    <t>𬖉󰠐𬖉䋦買鉦千愁</t>
+  </si>
+  <si>
+    <t>自𫢩几鈽愛茹</t>
+  </si>
+  <si>
+    <t>浽𧖱顯𢫘𢯰𧊉𢖵󰅒</t>
+  </si>
+  <si>
+    <t>咍󰑼几默罪情</t>
+  </si>
+  <si>
+    <t>求絲来魂𥘷別扛𫰅</t>
+  </si>
+  <si>
+    <t>咍󰑼𥙧道冲頑</t>
+  </si>
+  <si>
+    <t>版扵求󰞽平迻凭端</t>
+  </si>
+  <si>
+    <t>丑</t>
+  </si>
+  <si>
+    <t>𬮙𠦳罪爲󰜋羡澄</t>
+  </si>
+  <si>
+    <t>添𧗱道𬌓󰖥買脱騷</t>
+  </si>
+  <si>
+    <t>𡎦蔞軒畧無󰠃㐌生溪</t>
+  </si>
+  <si>
+    <t>𧊉京結伴貝海那</t>
+  </si>
+  <si>
+    <t>妾𠳒󰜋等些旬初</t>
+  </si>
+  <si>
+    <t>𣳔浪溋德移翠𫳵</t>
+  </si>
+  <si>
+    <t>𨕭香沙𠦳𢫫𧵆</t>
+  </si>
+  <si>
+    <t>𬮙恩𠊛𧘇𠹾掣包</t>
+  </si>
+  <si>
+    <t>古</t>
+  </si>
+  <si>
+    <t>勞瓢另𮢶撩爲</t>
+  </si>
+  <si>
+    <t>𬮙殘浽默𫴋𠓨󰜋迢</t>
+  </si>
+  <si>
+    <t>哭𠊛孕橘道常</t>
+  </si>
+  <si>
+    <t>𠦳𠁀音𥐆析娘爫紅</t>
+  </si>
+  <si>
+    <t>𬮙殘盎𥘀徽底淶</t>
+  </si>
+  <si>
+    <t>𠬠孕𤿰㮠𦣰搏</t>
+  </si>
+  <si>
+    <t>𬮙𠁀台寔鈽詳叁濃</t>
+  </si>
+  <si>
+    <t>𨔍𠊛𨷑𫔳户堂</t>
   </si>
 </sst>
 </file>
@@ -680,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -708,10 +1644,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -719,10 +1655,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -730,10 +1666,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -741,10 +1677,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -752,10 +1688,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -763,10 +1699,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -774,109 +1710,109 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -884,10 +1820,10 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -895,10 +1831,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -906,10 +1842,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -917,131 +1853,131 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1049,10 +1985,10 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1060,10 +1996,10 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1071,131 +2007,131 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1203,10 +2139,10 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1214,10 +2150,1671 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D57" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>99</v>
+      </c>
+      <c r="D82" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
         <v>102</v>
+      </c>
+      <c r="D85" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D89" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>107</v>
+      </c>
+      <c r="D90" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>119</v>
+      </c>
+      <c r="D102" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>122</v>
+      </c>
+      <c r="D105" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>123</v>
+      </c>
+      <c r="D106" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D108" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>126</v>
+      </c>
+      <c r="D109" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>132</v>
+      </c>
+      <c r="D115" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>134</v>
+      </c>
+      <c r="D117" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>135</v>
+      </c>
+      <c r="D118" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>136</v>
+      </c>
+      <c r="D119" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>137</v>
+      </c>
+      <c r="D120" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>138</v>
+      </c>
+      <c r="D121" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>139</v>
+      </c>
+      <c r="D122" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>140</v>
+      </c>
+      <c r="D123" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>141</v>
+      </c>
+      <c r="D124" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>142</v>
+      </c>
+      <c r="D125" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>143</v>
+      </c>
+      <c r="D126" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>144</v>
+      </c>
+      <c r="D127" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>145</v>
+      </c>
+      <c r="D128" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>146</v>
+      </c>
+      <c r="D129" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>147</v>
+      </c>
+      <c r="D130" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>148</v>
+      </c>
+      <c r="D131" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>149</v>
+      </c>
+      <c r="D132" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>150</v>
+      </c>
+      <c r="D133" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>151</v>
+      </c>
+      <c r="D134" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>152</v>
+      </c>
+      <c r="D135" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>153</v>
+      </c>
+      <c r="D136" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" t="s">
+        <v>155</v>
+      </c>
+      <c r="D138" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>156</v>
+      </c>
+      <c r="D139" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>157</v>
+      </c>
+      <c r="D140" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>158</v>
+      </c>
+      <c r="D141" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" t="s">
+        <v>159</v>
+      </c>
+      <c r="D142" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="s">
+        <v>160</v>
+      </c>
+      <c r="D143" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" t="s">
+        <v>161</v>
+      </c>
+      <c r="D144" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" t="s">
+        <v>162</v>
+      </c>
+      <c r="D145" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" t="s">
+        <v>163</v>
+      </c>
+      <c r="D146" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" t="s">
+        <v>164</v>
+      </c>
+      <c r="D147" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>165</v>
+      </c>
+      <c r="D148" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>166</v>
+      </c>
+      <c r="D149" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" t="s">
+        <v>167</v>
+      </c>
+      <c r="D150" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>168</v>
+      </c>
+      <c r="D151" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" t="s">
+        <v>169</v>
+      </c>
+      <c r="D152" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>170</v>
+      </c>
+      <c r="D153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>171</v>
+      </c>
+      <c r="D154" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>172</v>
+      </c>
+      <c r="D155" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>173</v>
+      </c>
+      <c r="D156" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>174</v>
+      </c>
+      <c r="D157" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>175</v>
+      </c>
+      <c r="D158" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
+        <v>176</v>
+      </c>
+      <c r="D159" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" t="s">
+        <v>177</v>
+      </c>
+      <c r="D160" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161" t="s">
+        <v>178</v>
+      </c>
+      <c r="D161" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" t="s">
+        <v>179</v>
+      </c>
+      <c r="D162" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163" t="s">
+        <v>180</v>
+      </c>
+      <c r="D163" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" t="s">
+        <v>182</v>
+      </c>
+      <c r="D165" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" t="s">
+        <v>183</v>
+      </c>
+      <c r="D166" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" t="s">
+        <v>184</v>
+      </c>
+      <c r="D167" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168" t="s">
+        <v>185</v>
+      </c>
+      <c r="D168" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169" t="s">
+        <v>186</v>
+      </c>
+      <c r="D169" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170" t="s">
+        <v>187</v>
+      </c>
+      <c r="D170" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" t="s">
+        <v>188</v>
+      </c>
+      <c r="D171" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" t="s">
+        <v>189</v>
+      </c>
+      <c r="D172" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" t="s">
+        <v>190</v>
+      </c>
+      <c r="D173" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" t="s">
+        <v>191</v>
+      </c>
+      <c r="D174" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" t="s">
+        <v>192</v>
+      </c>
+      <c r="D175" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" t="s">
+        <v>193</v>
+      </c>
+      <c r="D176" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" t="s">
+        <v>194</v>
+      </c>
+      <c r="D177" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" t="s">
+        <v>195</v>
+      </c>
+      <c r="D178" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" t="s">
+        <v>196</v>
+      </c>
+      <c r="D179" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" t="s">
+        <v>197</v>
+      </c>
+      <c r="D180" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" t="s">
+        <v>198</v>
+      </c>
+      <c r="D181" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" t="s">
+        <v>199</v>
+      </c>
+      <c r="D182" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" t="s">
+        <v>200</v>
+      </c>
+      <c r="D183" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>17</v>
+      </c>
+      <c r="C184" t="s">
+        <v>201</v>
+      </c>
+      <c r="D184" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" t="s">
+        <v>202</v>
+      </c>
+      <c r="D185" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" t="s">
+        <v>203</v>
+      </c>
+      <c r="D186" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" t="s">
+        <v>204</v>
+      </c>
+      <c r="D187" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" t="s">
+        <v>205</v>
+      </c>
+      <c r="D188" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" t="s">
+        <v>206</v>
+      </c>
+      <c r="D189" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" t="s">
+        <v>207</v>
+      </c>
+      <c r="D190" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" t="s">
+        <v>208</v>
+      </c>
+      <c r="D191" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" t="s">
+        <v>209</v>
+      </c>
+      <c r="D192" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" t="s">
+        <v>210</v>
+      </c>
+      <c r="D193" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" t="s">
+        <v>211</v>
+      </c>
+      <c r="D194" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>212</v>
+      </c>
+      <c r="D195" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>213</v>
+      </c>
+      <c r="D196" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>214</v>
+      </c>
+      <c r="D197" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>215</v>
+      </c>
+      <c r="D198" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>216</v>
+      </c>
+      <c r="D199" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
